--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\libor\Dropbox\RPA\UI path\Projects\MovePaymentReminders\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\libor\Dropbox\LK_docs\Valuetools\Zákazníci\Benet Automotive\Demo Move Emails\MovePaymentReminders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEA9328-5710-4A99-9325-3CFCBDA3DFF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E90D3B-3862-48E7-9E68-18AD54E8077F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,16 +145,16 @@
     <t>Inbox</t>
   </si>
   <si>
+    <t>IMAP Port</t>
+  </si>
+  <si>
+    <t>Robot upominky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAP server </t>
+  </si>
+  <si>
     <t>mail.benet-auto.cz</t>
-  </si>
-  <si>
-    <t>IMAP Port</t>
-  </si>
-  <si>
-    <t>IMAP server</t>
-  </si>
-  <si>
-    <t>Robot upominky</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -642,7 +642,7 @@
         <v>993</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -650,9 +650,9 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
     </row>
